--- a/export/STOCK BARANG.xlsx
+++ b/export/STOCK BARANG.xlsx
@@ -8574,7 +8574,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8650,13 +8650,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8805,14 +8798,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8843,6 +8829,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -8850,14 +8843,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9194,28 +9187,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9224,118 +9220,115 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9837,8 +9830,8 @@
   <sheetPr/>
   <dimension ref="A2:O392"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19060,7 +19053,7 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B5:D338" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B6:D338">
+    <sortState ref="B5:D338">
       <sortCondition ref="B5"/>
     </sortState>
     <extLst/>
@@ -19081,8 +19074,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:P389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -27749,7 +27742,7 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B5:C325" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B6:C325">
+    <sortState ref="B5:C325">
       <sortCondition ref="B5"/>
     </sortState>
     <extLst/>
@@ -27771,8 +27764,8 @@
   <sheetPr/>
   <dimension ref="A1:F334"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -27904,7 +27897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="300" spans="1:6">
+    <row r="8" ht="45" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>129</v>
       </c>
@@ -27921,7 +27914,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" ht="255" spans="1:6">
+    <row r="9" ht="45" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>154</v>
       </c>
@@ -27970,7 +27963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="1:6">
+    <row r="12" ht="75" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>341</v>
       </c>
@@ -28006,7 +27999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="300" spans="1:6">
+    <row r="14" ht="45" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>189</v>
       </c>
@@ -28040,7 +28033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="409.5" spans="1:6">
+    <row r="16" ht="75" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>280</v>
       </c>
@@ -28074,7 +28067,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="18" ht="409.5" spans="1:6">
+    <row r="18" ht="60" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
@@ -28091,7 +28084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="375" spans="1:6">
+    <row r="19" ht="45" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
@@ -28125,7 +28118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="375" spans="1:6">
+    <row r="21" ht="60" spans="1:6">
       <c r="A21" s="9" t="s">
         <v>258</v>
       </c>
@@ -28176,7 +28169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" ht="375" spans="1:6">
+    <row r="24" ht="45" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
@@ -28193,7 +28186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="300" spans="1:6">
+    <row r="25" ht="45" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
@@ -28210,7 +28203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="315" spans="1:6">
+    <row r="26" ht="45" spans="1:6">
       <c r="A26" s="7" t="s">
         <v>340</v>
       </c>
@@ -28312,7 +28305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="360" spans="1:6">
+    <row r="32" ht="60" spans="1:6">
       <c r="A32" s="7" t="s">
         <v>324</v>
       </c>
@@ -28380,7 +28373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="285" spans="1:6">
+    <row r="36" ht="45" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>120</v>
       </c>
@@ -28563,7 +28556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="405" spans="1:6">
+    <row r="47" ht="60" spans="1:6">
       <c r="A47" s="7" t="s">
         <v>186</v>
       </c>
@@ -28614,7 +28607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" ht="409.5" spans="1:6">
+    <row r="50" ht="90" spans="1:6">
       <c r="A50" s="7" t="s">
         <v>247</v>
       </c>
@@ -28698,7 +28691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="375" spans="1:6">
+    <row r="55" ht="60" spans="1:6">
       <c r="A55" s="7" t="s">
         <v>219</v>
       </c>
@@ -28783,7 +28776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="409.5" spans="1:6">
+    <row r="60" ht="60" spans="1:6">
       <c r="A60" s="9" t="s">
         <v>183</v>
       </c>
@@ -28834,7 +28827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" ht="315" spans="1:6">
+    <row r="63" ht="45" spans="1:6">
       <c r="A63" s="7" t="s">
         <v>257</v>
       </c>
@@ -28902,7 +28895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="409.5" spans="1:6">
+    <row r="67" ht="60" spans="1:6">
       <c r="A67" s="7" t="s">
         <v>339</v>
       </c>
@@ -28936,7 +28929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" ht="409.5" spans="1:6">
+    <row r="69" ht="75" spans="1:6">
       <c r="A69" s="7" t="s">
         <v>15</v>
       </c>
@@ -28970,7 +28963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" ht="409.5" spans="1:6">
+    <row r="71" ht="60" spans="1:6">
       <c r="A71" s="9" t="s">
         <v>98</v>
       </c>
@@ -29021,7 +29014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" ht="360" spans="1:6">
+    <row r="74" ht="60" spans="1:6">
       <c r="A74" s="7" t="s">
         <v>319</v>
       </c>
@@ -29344,7 +29337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" ht="300" spans="1:6">
+    <row r="93" ht="30" spans="1:6">
       <c r="A93" s="7" t="s">
         <v>114</v>
       </c>
@@ -29429,7 +29422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" ht="409.5" spans="1:6">
+    <row r="98" ht="60" spans="1:6">
       <c r="A98" s="7" t="s">
         <v>366</v>
       </c>
@@ -29497,7 +29490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="409.5" spans="1:6">
+    <row r="102" ht="60" spans="1:6">
       <c r="A102" s="7" t="s">
         <v>344</v>
       </c>
@@ -29565,7 +29558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="409.5" spans="1:6">
+    <row r="106" ht="150" spans="1:6">
       <c r="A106" s="7" t="s">
         <v>337</v>
       </c>
@@ -29633,7 +29626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="360" spans="1:6">
+    <row r="110" ht="60" spans="1:6">
       <c r="A110" s="7" t="s">
         <v>233</v>
       </c>
@@ -29667,7 +29660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="390" spans="1:6">
+    <row r="112" ht="60" spans="1:6">
       <c r="A112" s="7" t="s">
         <v>204</v>
       </c>
@@ -29905,7 +29898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" ht="330" spans="1:6">
+    <row r="126" ht="60" spans="1:6">
       <c r="A126" s="7" t="s">
         <v>281</v>
       </c>
@@ -30243,7 +30236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" ht="405" spans="1:6">
+    <row r="146" ht="60" spans="1:6">
       <c r="A146" s="7" t="s">
         <v>65</v>
       </c>
@@ -30294,7 +30287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="409.5" spans="1:6">
+    <row r="149" ht="60" spans="1:6">
       <c r="A149" s="7" t="s">
         <v>160</v>
       </c>
@@ -30311,7 +30304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="300" spans="1:6">
+    <row r="150" ht="60" spans="1:6">
       <c r="A150" s="7" t="s">
         <v>124</v>
       </c>
@@ -30379,7 +30372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" ht="390" spans="1:6">
+    <row r="154" ht="60" spans="1:6">
       <c r="A154" s="7" t="s">
         <v>338</v>
       </c>
@@ -30413,7 +30406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" ht="315" spans="1:6">
+    <row r="156" ht="45" spans="1:6">
       <c r="A156" s="7" t="s">
         <v>278</v>
       </c>
@@ -30447,7 +30440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" ht="330" spans="1:6">
+    <row r="158" ht="60" spans="1:6">
       <c r="A158" s="7" t="s">
         <v>167</v>
       </c>
@@ -30464,7 +30457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" ht="409.5" spans="1:6">
+    <row r="159" ht="90" spans="1:6">
       <c r="A159" s="7" t="s">
         <v>122</v>
       </c>
@@ -30615,7 +30608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="285" spans="1:6">
+    <row r="168" ht="45" spans="1:6">
       <c r="A168" s="7" t="s">
         <v>230</v>
       </c>
@@ -30632,7 +30625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" ht="330" spans="1:6">
+    <row r="169" ht="60" spans="1:6">
       <c r="A169" s="7" t="s">
         <v>37</v>
       </c>
@@ -30666,7 +30659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" ht="300" spans="1:6">
+    <row r="171" ht="60" spans="1:6">
       <c r="A171" s="7" t="s">
         <v>172</v>
       </c>
@@ -30717,7 +30710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" ht="345" spans="1:6">
+    <row r="174" ht="45" spans="1:6">
       <c r="A174" s="7" t="s">
         <v>274</v>
       </c>
@@ -30734,7 +30727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" ht="300" spans="1:6">
+    <row r="175" ht="45" spans="1:6">
       <c r="A175" s="7" t="s">
         <v>273</v>
       </c>
@@ -30751,7 +30744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" ht="345" spans="1:6">
+    <row r="176" ht="45" spans="1:6">
       <c r="A176" s="7" t="s">
         <v>208</v>
       </c>
@@ -30768,7 +30761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" ht="409.5" spans="1:6">
+    <row r="177" ht="75" spans="1:6">
       <c r="A177" s="7" t="s">
         <v>368</v>
       </c>
@@ -31053,7 +31046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" ht="300" spans="1:6">
+    <row r="194" ht="60" spans="1:6">
       <c r="A194" s="7" t="s">
         <v>283</v>
       </c>
@@ -31240,7 +31233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" ht="300" spans="1:6">
+    <row r="205" ht="45" spans="1:6">
       <c r="A205" s="7" t="s">
         <v>330</v>
       </c>
@@ -31461,7 +31454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" ht="409.5" spans="1:6">
+    <row r="218" ht="90" spans="1:6">
       <c r="A218" s="7" t="s">
         <v>156</v>
       </c>
@@ -31478,7 +31471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" ht="390" spans="1:6">
+    <row r="219" ht="60" spans="1:6">
       <c r="A219" s="7" t="s">
         <v>90</v>
       </c>
@@ -31546,7 +31539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" ht="409.5" spans="1:6">
+    <row r="223" ht="45" spans="1:6">
       <c r="A223" s="7" t="s">
         <v>146</v>
       </c>
@@ -31563,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" ht="300" spans="1:6">
+    <row r="224" ht="60" spans="1:6">
       <c r="A224" s="7" t="s">
         <v>110</v>
       </c>
@@ -31580,7 +31573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" ht="300" spans="1:6">
+    <row r="225" ht="60" spans="1:6">
       <c r="A225" s="7" t="s">
         <v>303</v>
       </c>
@@ -31614,7 +31607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" ht="270" spans="1:6">
+    <row r="227" ht="60" spans="1:6">
       <c r="A227" s="7" t="s">
         <v>117</v>
       </c>
@@ -31631,7 +31624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" ht="270" spans="1:6">
+    <row r="228" ht="60" spans="1:6">
       <c r="A228" s="7" t="s">
         <v>158</v>
       </c>
@@ -31665,7 +31658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" ht="300" spans="1:6">
+    <row r="230" ht="45" spans="1:6">
       <c r="A230" s="7" t="s">
         <v>138</v>
       </c>
@@ -31682,7 +31675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" ht="345" spans="1:6">
+    <row r="231" ht="60" spans="1:6">
       <c r="A231" s="7" t="s">
         <v>140</v>
       </c>
@@ -31699,7 +31692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" ht="330" spans="1:6">
+    <row r="232" ht="60" spans="1:6">
       <c r="A232" s="7" t="s">
         <v>141</v>
       </c>
@@ -31733,7 +31726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" ht="405" spans="1:6">
+    <row r="234" ht="60" spans="1:6">
       <c r="A234" s="7" t="s">
         <v>266</v>
       </c>
@@ -31750,7 +31743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="235" ht="405" spans="1:6">
+    <row r="235" ht="60" spans="1:6">
       <c r="A235" s="7" t="s">
         <v>267</v>
       </c>
@@ -31769,7 +31762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="236" ht="405" spans="1:6">
+    <row r="236" ht="60" spans="1:6">
       <c r="A236" s="7" t="s">
         <v>272</v>
       </c>
@@ -31786,7 +31779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="237" ht="405" spans="1:6">
+    <row r="237" ht="60" spans="1:6">
       <c r="A237" s="7" t="s">
         <v>271</v>
       </c>
@@ -31803,7 +31796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" ht="405" spans="1:6">
+    <row r="238" ht="60" spans="1:6">
       <c r="A238" s="7" t="s">
         <v>269</v>
       </c>
@@ -31822,7 +31815,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="239" ht="405" spans="1:6">
+    <row r="239" ht="60" spans="1:6">
       <c r="A239" s="7" t="s">
         <v>268</v>
       </c>
@@ -31839,7 +31832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="240" ht="409.5" spans="1:6">
+    <row r="240" ht="60" spans="1:6">
       <c r="A240" s="7" t="s">
         <v>270</v>
       </c>
@@ -31856,7 +31849,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="241" ht="409.5" spans="1:6">
+    <row r="241" ht="60" spans="1:6">
       <c r="A241" s="7" t="s">
         <v>145</v>
       </c>
@@ -31873,7 +31866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" ht="360" spans="1:6">
+    <row r="242" ht="60" spans="1:6">
       <c r="A242" s="7" t="s">
         <v>81</v>
       </c>
@@ -31890,7 +31883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="243" ht="360" spans="1:6">
+    <row r="243" ht="60" spans="1:6">
       <c r="A243" s="7" t="s">
         <v>83</v>
       </c>
@@ -31958,7 +31951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" ht="330" spans="1:6">
+    <row r="247" ht="45" spans="1:6">
       <c r="A247" s="7" t="s">
         <v>96</v>
       </c>
@@ -32026,7 +32019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" ht="409.5" spans="1:6">
+    <row r="251" ht="60" spans="1:6">
       <c r="A251" s="7" t="s">
         <v>369</v>
       </c>
@@ -32128,7 +32121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" ht="330" spans="1:6">
+    <row r="257" ht="60" spans="1:6">
       <c r="A257" s="7" t="s">
         <v>143</v>
       </c>
@@ -32179,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" ht="409.5" spans="1:6">
+    <row r="260" ht="60" spans="1:6">
       <c r="A260" s="7" t="s">
         <v>352</v>
       </c>
@@ -32230,7 +32223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" ht="270" spans="1:6">
+    <row r="263" ht="30" spans="1:6">
       <c r="A263" s="7" t="s">
         <v>259</v>
       </c>
@@ -32332,7 +32325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" ht="300" spans="1:6">
+    <row r="269" ht="45" spans="1:6">
       <c r="A269" s="7" t="s">
         <v>238</v>
       </c>
@@ -32417,7 +32410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" ht="409.5" spans="1:6">
+    <row r="274" ht="105" spans="1:6">
       <c r="A274" s="7" t="s">
         <v>370</v>
       </c>
@@ -32502,7 +32495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" ht="409.5" spans="1:6">
+    <row r="279" ht="60" spans="1:6">
       <c r="A279" s="7" t="s">
         <v>78</v>
       </c>
@@ -32604,7 +32597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" ht="270" spans="1:6">
+    <row r="285" ht="45" spans="1:6">
       <c r="A285" s="7" t="s">
         <v>42</v>
       </c>
@@ -32689,7 +32682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" ht="360" spans="1:6">
+    <row r="290" ht="45" spans="1:6">
       <c r="A290" s="9" t="s">
         <v>246</v>
       </c>
@@ -32740,7 +32733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" ht="300" spans="1:6">
+    <row r="293" ht="45" spans="1:6">
       <c r="A293" s="9" t="s">
         <v>57</v>
       </c>
@@ -32774,7 +32767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" ht="409.5" spans="1:6">
+    <row r="295" ht="60" spans="1:6">
       <c r="A295" s="9" t="s">
         <v>173</v>
       </c>
@@ -32808,7 +32801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" ht="409.5" spans="1:6">
+    <row r="297" ht="60" spans="1:6">
       <c r="A297" s="7" t="s">
         <v>116</v>
       </c>
@@ -32825,7 +32818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" ht="300" spans="1:6">
+    <row r="298" ht="45" spans="1:6">
       <c r="A298" s="7" t="s">
         <v>79</v>
       </c>
@@ -32842,7 +32835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" ht="150" spans="1:6">
+    <row r="299" ht="30" spans="1:6">
       <c r="A299" s="21" t="s">
         <v>131</v>
       </c>
@@ -32859,7 +32852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" ht="120" spans="1:6">
+    <row r="300" ht="30" spans="1:6">
       <c r="A300" s="21" t="s">
         <v>132</v>
       </c>
@@ -32876,7 +32869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" ht="210" spans="1:6">
+    <row r="301" ht="30" spans="1:6">
       <c r="A301" s="21" t="s">
         <v>133</v>
       </c>
@@ -32893,7 +32886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" ht="180" spans="1:6">
+    <row r="302" ht="30" spans="1:6">
       <c r="A302" s="21" t="s">
         <v>127</v>
       </c>
@@ -32944,7 +32937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" ht="330" spans="1:6">
+    <row r="305" ht="45" spans="1:6">
       <c r="A305" s="7" t="s">
         <v>113</v>
       </c>
@@ -33012,7 +33005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" ht="409.5" spans="1:6">
+    <row r="309" ht="60" spans="1:6">
       <c r="A309" s="7" t="s">
         <v>155</v>
       </c>
@@ -33029,7 +33022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" ht="409.5" spans="1:6">
+    <row r="310" ht="60" spans="1:6">
       <c r="A310" s="7" t="s">
         <v>311</v>
       </c>
@@ -33046,7 +33039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" ht="330" spans="1:6">
+    <row r="311" ht="60" spans="1:6">
       <c r="A311" s="7" t="s">
         <v>72</v>
       </c>
@@ -33063,7 +33056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" ht="409.5" spans="1:6">
+    <row r="312" ht="60" spans="1:6">
       <c r="A312" s="7" t="s">
         <v>193</v>
       </c>
@@ -33216,7 +33209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" ht="330" spans="1:6">
+    <row r="321" ht="45" spans="1:6">
       <c r="A321" s="7" t="s">
         <v>299</v>
       </c>
@@ -33352,7 +33345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" ht="330" spans="1:6">
+    <row r="329" ht="60" spans="1:6">
       <c r="A329" s="9" t="s">
         <v>164</v>
       </c>
@@ -33386,7 +33379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" ht="330" spans="1:6">
+    <row r="331" ht="60" spans="1:6">
       <c r="A331" s="7" t="s">
         <v>163</v>
       </c>
@@ -33420,7 +33413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" ht="270" spans="1:6">
+    <row r="333" ht="30" spans="1:6">
       <c r="A333" s="7" t="s">
         <v>285</v>
       </c>
@@ -33437,7 +33430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" ht="270" spans="1:6">
+    <row r="334" ht="30" spans="1:6">
       <c r="A334" s="7" t="s">
         <v>284</v>
       </c>
